--- a/Ads1299_defRegs.xlsx
+++ b/Ads1299_defRegs.xlsx
@@ -2,10 +2,10 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Musa Mahmood\Dropbox\Public\_VCU\8-Spring_2017\EGRB 402\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mahmoodms\Documents\_APPDEV_new\nRF_Development\nRF5_SDK_11.0.0_2\examples\_my_projects\EEG_ADS1299_Firmware\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="79">
   <si>
     <t>ADDRESS</t>
   </si>
@@ -258,12 +258,15 @@
   </si>
   <si>
     <t xml:space="preserve">Continuous Conversion &amp; LOFF comparator powered down. </t>
+  </si>
+  <si>
+    <t>CHECKID</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -700,10 +703,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S24"/>
+  <dimension ref="A1:S26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q30" sqref="Q30"/>
+      <selection activeCell="L26" sqref="L26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1713,6 +1716,39 @@
         <v>77</v>
       </c>
     </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>78</v>
+      </c>
+      <c r="C26" t="str">
+        <f t="shared" ref="C26" si="1">"0x"&amp;TEXT(DEC2HEX(K26+2*J26+4*I26+8*H26+16*G26+32*F26+64*E26+128*D26,2),"00")</f>
+        <v>0x3C</v>
+      </c>
+      <c r="D26" s="4">
+        <v>0</v>
+      </c>
+      <c r="E26" s="4">
+        <v>0</v>
+      </c>
+      <c r="F26" s="4">
+        <v>1</v>
+      </c>
+      <c r="G26" s="14">
+        <v>1</v>
+      </c>
+      <c r="H26" s="14">
+        <v>1</v>
+      </c>
+      <c r="I26" s="14">
+        <v>1</v>
+      </c>
+      <c r="J26" s="4">
+        <v>0</v>
+      </c>
+      <c r="K26" s="4">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>

--- a/Ads1299_defRegs.xlsx
+++ b/Ads1299_defRegs.xlsx
@@ -706,7 +706,7 @@
   <dimension ref="A1:S26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L26" sqref="L26"/>
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1272,7 +1272,7 @@
       </c>
       <c r="C14" t="str">
         <f t="shared" si="0"/>
-        <v>0x0F</v>
+        <v>0x03</v>
       </c>
       <c r="D14" s="11">
         <v>0</v>
@@ -1287,10 +1287,10 @@
         <v>0</v>
       </c>
       <c r="H14" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14" s="4">
         <v>1</v>
@@ -1314,7 +1314,7 @@
       </c>
       <c r="C15" t="str">
         <f t="shared" si="0"/>
-        <v>0x00</v>
+        <v>0x03</v>
       </c>
       <c r="D15" s="11">
         <v>0</v>
@@ -1335,10 +1335,10 @@
         <v>0</v>
       </c>
       <c r="J15" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K15" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L15" s="4">
         <v>51</v>
